--- a/pred_ohlcv/54_21/2019-10-29 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 TRV ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-6502780.937400048</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-7564793.287095902</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-7017341.314839632</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-6936147.293837716</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-6831955.673375219</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-6846954.582677309</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-6873444.817577309</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>65139429.70966502</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>65007953.10276502</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>65063116.96706502</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>65144290.94326502</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>65257550.91526502</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>66190393.00317512</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>66117389.30497511</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>65977908.20477431</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>65902643.70497431</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>66022425.1389856</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>65896335.2926856</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>65744455.73791904</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>65529270.12870797</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>65327138.52181204</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>65276467.12171204</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>65355031.24021204</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>65147561.16400395</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>65105606.04307266</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>65105606.04307266</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>65050527.92026924</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>65055640.51816924</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>65099993.12546924</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>64972650.38776924</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>64976235.88946924</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>65035443.76696923</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>65055615.69898184</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>65097978.55568185</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>65091413.38138185</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>65034032.14468185</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>64946668.96818185</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>64944879.42768185</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>64946430.04002675</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>64946366.62112675</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>64977945.67034627</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>65003362.96244628</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>65048455.81834628</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>65237452.40174627</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>65404319.34709283</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>65386628.70929283</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>65341337.38999283</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>65213886.81339283</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>65336132.67319283</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>65187796.45569283</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>65133664.85709283</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>65195712.92089283</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>65202926.80559283</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>65238923.34139283</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>65208640.53979283</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>65166531.88099283</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>65034220.85809283</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>65034726.77734915</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>65034051.95623799</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>65014944.65864574</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>64968802.81972526</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>64952745.54342526</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>64955598.26982526</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>64925171.98042527</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>64925171.98042527</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>64975204.89502527</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>65122797.32680479</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>65129940.92594262</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>65129940.92594262</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>65117149.96704262</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>65159472.46466635</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>65018805.09466635</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>65012733.30346636</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>65023062.01536636</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>65022324.81616636</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>65007240.12046637</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>64965500.46176637</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>64965500.46176637</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>65057917.99266637</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>65017285.87502556</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>65008822.46382556</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>64989131.29112556</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>65012883.88062556</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>65033131.43252556</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>65033131.43252556</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>65032955.43252556</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>65032955.43252556</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>65042283.07302556</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>65042273.07302556</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>65075388.43332556</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>65104314.02852556</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>65120345.34452556</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>65114313.39542556</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>65114303.39542556</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>65075653.38762556</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>65127818.19842556</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>65145543.88372556</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>64983341.46762556</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>64934306.87402556</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>65058558.97152556</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>65068488.97152556</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>65039997.56642555</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>64865427.81382556</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>64817657.36172555</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>64866400.86082555</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>64929589.17572556</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>64977827.43582556</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>64906855.43582556</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>64906855.43582556</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>64906855.43582556</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>64808987.05032556</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>64847030.14052556</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>64814307.48752556</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>64814307.48752556</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>64814307.48752556</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>64803686.79952556</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>64682250.97812556</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>64702420.97812556</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>64655817.38586535</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>64655872.38586535</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>64695157.35346535</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>64690002.35346535</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>64690002.35346535</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>64672883.44919578</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>64710181.82429578</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>64706534.04219578</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>64707154.04219578</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>64565349.31459578</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>64565349.31459578</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 TRV ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-3968438.944970295</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-4163784.563870295</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4284644.513970295</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4705638.797270295</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-4631034.863670295</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4664883.729670295</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-4557746.973770295</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4503418.500070295</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4405389.614970296</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4054989.998484134</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4054989.998484134</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4266697.539884134</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4312739.195884135</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4481333.642984135</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4481333.642984135</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4438279.775784135</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4577207.479484135</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-4661776.032384135</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-4768287.431978232</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6502780.937400048</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7977167.642200047</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-8055132.06295719</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-7991582.697484654</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-7564793.287095902</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-7616143.480695902</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-7669400.092795902</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-7823184.531309136</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-7871743.583509136</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-6831955.673375219</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-6846954.582677309</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-6907293.580643506</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-6891435.830009703</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-6918699.2245759</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>65139429.70966502</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>65007953.10276502</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>65063116.96706502</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>65144290.94326502</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>65257550.91526502</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>66190393.00317512</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>66117389.30497511</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>65977908.20477431</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>65902643.70497431</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>66022425.1389856</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>65896335.2926856</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>65744455.73791904</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>65529270.12870797</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>65327138.52181204</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>65276467.12171204</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>65355031.24021204</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
